--- a/data/trans_orig/Q5401-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Provincia-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4137</v>
+        <v>4075</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02599456554248095</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1169169970485304</v>
+        <v>0.1151680894400518</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7128</v>
+        <v>7176</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06117374147368644</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1816883311552487</v>
+        <v>0.1829277348889909</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -786,19 +786,19 @@
         <v>3320</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9413</v>
+        <v>8716</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04449066784553207</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01210041429746176</v>
+        <v>0.01188737309936805</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1261570856633518</v>
+        <v>0.116808636764699</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>7749</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3438</v>
+        <v>3563</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13258</v>
+        <v>13312</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2189978013993313</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09715510601337647</v>
+        <v>0.100679466488585</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3746700704261063</v>
+        <v>0.3761973510701078</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -836,19 +836,19 @@
         <v>6673</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3140</v>
+        <v>2407</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12953</v>
+        <v>12831</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1700958361262568</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08003071299311114</v>
+        <v>0.06136597303214854</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3301781349367229</v>
+        <v>0.3270647430090173</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -857,19 +857,19 @@
         <v>14422</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8507</v>
+        <v>8483</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23070</v>
+        <v>21979</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1932866888286497</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1140119915760861</v>
+        <v>0.1136874388949216</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3091747279104988</v>
+        <v>0.2945572483777305</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>26717</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20946</v>
+        <v>20675</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31117</v>
+        <v>30888</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7550076330581877</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5919181838959442</v>
+        <v>0.5842836646828824</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8793554222271533</v>
+        <v>0.8728995823832345</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -907,19 +907,19 @@
         <v>30158</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23693</v>
+        <v>24110</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34612</v>
+        <v>34906</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7687304224000567</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.603948339647891</v>
+        <v>0.6145689585640125</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8822610335919535</v>
+        <v>0.8897446612530546</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>59</v>
@@ -928,19 +928,19 @@
         <v>56875</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>48639</v>
+        <v>49494</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63321</v>
+        <v>63201</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7622226433258182</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6518472317472275</v>
+        <v>0.6633120196694844</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8486085013765674</v>
+        <v>0.8470055376425877</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>5959</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2076</v>
+        <v>1999</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11746</v>
+        <v>11786</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08940337312550857</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03114295994125636</v>
+        <v>0.02998827302780726</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1762249595363035</v>
+        <v>0.1768302358255545</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -1053,19 +1053,19 @@
         <v>7190</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2997</v>
+        <v>3015</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13534</v>
+        <v>14077</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07346337549830881</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03061942597907381</v>
+        <v>0.03080761080490867</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1382743686758053</v>
+        <v>0.1438264468544698</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -1074,19 +1074,19 @@
         <v>13149</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6926</v>
+        <v>7190</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21055</v>
+        <v>21434</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0799210063953143</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04209566677988846</v>
+        <v>0.04369805313039523</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1279729674526054</v>
+        <v>0.1302758580060203</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>7603</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3199</v>
+        <v>3036</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14072</v>
+        <v>14095</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1140735758539253</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04799576213081087</v>
+        <v>0.04554153201968046</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2111151798079245</v>
+        <v>0.2114687875756962</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -1124,19 +1124,19 @@
         <v>13497</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7660</v>
+        <v>7774</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21158</v>
+        <v>20946</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1378994925784502</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07826290890568804</v>
+        <v>0.07942655177571331</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2161694162479037</v>
+        <v>0.2140027243087971</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>20</v>
@@ -1145,19 +1145,19 @@
         <v>21100</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>13301</v>
+        <v>13244</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>31430</v>
+        <v>30491</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1282471087081271</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08084400416141542</v>
+        <v>0.0804965752286276</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1910286217697283</v>
+        <v>0.1853257672278104</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>53091</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45699</v>
+        <v>45697</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58689</v>
+        <v>58773</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7965230510205661</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6856198025495506</v>
+        <v>0.6855862149495793</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8804998121841742</v>
+        <v>0.8817580373400954</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -1195,19 +1195,19 @@
         <v>77188</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>68423</v>
+        <v>67686</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83812</v>
+        <v>84140</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7886371319232409</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.699086185082175</v>
+        <v>0.691551276533559</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8563117402911097</v>
+        <v>0.8596696451043714</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>128</v>
@@ -1216,19 +1216,19 @@
         <v>130279</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>118579</v>
+        <v>118759</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>140466</v>
+        <v>139812</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7918318848965586</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7207170802051158</v>
+        <v>0.7218090869155559</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8537437551799443</v>
+        <v>0.8497736712010727</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>2802</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>165</v>
+        <v>889</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7679</v>
+        <v>6976</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05500162940842284</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003248174705994704</v>
+        <v>0.01745524435908998</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1507405365982722</v>
+        <v>0.1369450902449967</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1341,19 +1341,19 @@
         <v>6898</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3408</v>
+        <v>2328</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13953</v>
+        <v>13532</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08258606160793393</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04080768854666125</v>
+        <v>0.02786791920344844</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1670560342631253</v>
+        <v>0.1620218577217468</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -1362,19 +1362,19 @@
         <v>9699</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4502</v>
+        <v>4473</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17075</v>
+        <v>16737</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0721358665516299</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03348412686331889</v>
+        <v>0.03326365321239882</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1269894572356783</v>
+        <v>0.1244759863358856</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>7618</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3739</v>
+        <v>3734</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13649</v>
+        <v>13353</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1495424128286444</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07339978206018628</v>
+        <v>0.07330510720668838</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2679334801238342</v>
+        <v>0.2621401522504594</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -1412,19 +1412,19 @@
         <v>27007</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18815</v>
+        <v>18896</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35344</v>
+        <v>36165</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3233498271329905</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2252693153451974</v>
+        <v>0.2262416289434939</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4231737332895906</v>
+        <v>0.4330028690968485</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -1433,19 +1433,19 @@
         <v>34624</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24420</v>
+        <v>25959</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45405</v>
+        <v>45706</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2575039409978228</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1816171820073908</v>
+        <v>0.1930595642872361</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.337684298060682</v>
+        <v>0.3399167859294295</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>40521</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34104</v>
+        <v>34803</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45272</v>
+        <v>45347</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7954559577629328</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6695025650773383</v>
+        <v>0.6832142688520377</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.888724387890072</v>
+        <v>0.890206478470888</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>51</v>
@@ -1483,19 +1483,19 @@
         <v>49617</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41090</v>
+        <v>40011</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>58562</v>
+        <v>57141</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5940641112590755</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4919744771017038</v>
+        <v>0.479059065900976</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7011635147337731</v>
+        <v>0.6841527675524594</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>93</v>
@@ -1504,19 +1504,19 @@
         <v>90137</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>79183</v>
+        <v>79915</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>100210</v>
+        <v>100280</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6703601924505473</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5888904138578257</v>
+        <v>0.5943357139291813</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7452684925483052</v>
+        <v>0.7457891013364135</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>2592</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>807</v>
+        <v>818</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6888</v>
+        <v>7083</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04703150631832373</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01463381133356399</v>
+        <v>0.01483208696726595</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1249573213708694</v>
+        <v>0.1285058465625945</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1629,19 +1629,19 @@
         <v>7227</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3130</v>
+        <v>3091</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14682</v>
+        <v>14148</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09725059454637587</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04212295917044345</v>
+        <v>0.0416009206893411</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1975760686407406</v>
+        <v>0.1903802626205815</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1650,19 +1650,19 @@
         <v>9820</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5282</v>
+        <v>5264</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17687</v>
+        <v>16947</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07586402072510488</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04080970966011395</v>
+        <v>0.04066911424058675</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1366488783493007</v>
+        <v>0.1309333021514242</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>8061</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3986</v>
+        <v>3581</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14124</v>
+        <v>14557</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1462336133782291</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07231375720560967</v>
+        <v>0.06495635267005241</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.256226185973249</v>
+        <v>0.2640862833705935</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1700,19 +1700,19 @@
         <v>17474</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11221</v>
+        <v>11093</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25570</v>
+        <v>25341</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.235143278300712</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.150990159739536</v>
+        <v>0.1492732716688241</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3440858383583841</v>
+        <v>0.3410059260912247</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>25</v>
@@ -1721,19 +1721,19 @@
         <v>25535</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16836</v>
+        <v>17659</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34986</v>
+        <v>36180</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1972797252299297</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1300744484067198</v>
+        <v>0.1364315067018689</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2702967981926467</v>
+        <v>0.2795177160102011</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>44469</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>38361</v>
+        <v>37746</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>48940</v>
+        <v>49540</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8067348803034472</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6959255550702363</v>
+        <v>0.6847737679420209</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8878544496275562</v>
+        <v>0.8987295319421463</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>53</v>
@@ -1771,19 +1771,19 @@
         <v>49612</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41035</v>
+        <v>40937</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>57460</v>
+        <v>56992</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6676061271529122</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5521882035379344</v>
+        <v>0.5508779051784772</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7732123849693262</v>
+        <v>0.7669139531421147</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>102</v>
@@ -1792,19 +1792,19 @@
         <v>94081</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>83146</v>
+        <v>83712</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>102925</v>
+        <v>103246</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7268562540449653</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6423681050718915</v>
+        <v>0.6467447309266399</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7951842211050605</v>
+        <v>0.7976612776645805</v>
       </c>
     </row>
     <row r="19">
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5564</v>
+        <v>5224</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05915187846860282</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1895790056040021</v>
+        <v>0.1780088926759257</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>3184</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>917</v>
+        <v>897</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8144</v>
+        <v>7099</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07718331671256666</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0222292353935923</v>
+        <v>0.02174864093675155</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1974399972127439</v>
+        <v>0.1721148141835629</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1938,19 +1938,19 @@
         <v>4919</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1731</v>
+        <v>1872</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10364</v>
+        <v>10424</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06968723569180051</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02452136317522172</v>
+        <v>0.02651583921594456</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1468170219459555</v>
+        <v>0.1476627381551758</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>5167</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2385</v>
+        <v>1835</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9370</v>
+        <v>10049</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1760741783788873</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08127819546041873</v>
+        <v>0.06253259559605434</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3192883453587309</v>
+        <v>0.3424043928595271</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -1988,19 +1988,19 @@
         <v>10610</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5141</v>
+        <v>5630</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16540</v>
+        <v>17410</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2572452650348299</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1246303161427419</v>
+        <v>0.136490635212037</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4010038475849682</v>
+        <v>0.4221059360498909</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>17</v>
@@ -2009,19 +2009,19 @@
         <v>15778</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9812</v>
+        <v>9897</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>23823</v>
+        <v>23006</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2235005889926809</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1389999461355791</v>
+        <v>0.1401922622073868</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3374652740415428</v>
+        <v>0.3259019940163004</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>22444</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17744</v>
+        <v>17352</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26010</v>
+        <v>25934</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7647739431525099</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6046207702673873</v>
+        <v>0.5912584403636043</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8863055002335158</v>
+        <v>0.8837160232772805</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -2059,19 +2059,19 @@
         <v>27452</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20835</v>
+        <v>20911</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33579</v>
+        <v>33118</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6655714182526035</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5051388240738079</v>
+        <v>0.5069790376823813</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8141256165564584</v>
+        <v>0.8029339396615469</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -2080,19 +2080,19 @@
         <v>49896</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42194</v>
+        <v>41824</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56771</v>
+        <v>57004</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7068121753155187</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5977142263792409</v>
+        <v>0.5924669129723934</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8041973720978994</v>
+        <v>0.8075010187918366</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>5589</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1914</v>
+        <v>2613</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10557</v>
+        <v>10359</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1184123633241828</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04055594622683698</v>
+        <v>0.05536926849470111</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2236822114272146</v>
+        <v>0.2194864174278061</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2205,19 +2205,19 @@
         <v>5862</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2204</v>
+        <v>2120</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12434</v>
+        <v>11908</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08337527203556434</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03135047977613804</v>
+        <v>0.03015464144971752</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1768543501161607</v>
+        <v>0.1693605331525375</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -2226,19 +2226,19 @@
         <v>11451</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5878</v>
+        <v>6113</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18481</v>
+        <v>18575</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09744803937554249</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0500231823402495</v>
+        <v>0.05202113107494502</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.157279359659199</v>
+        <v>0.1580736840619909</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>11425</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5752</v>
+        <v>6514</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17144</v>
+        <v>18255</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2420739278263509</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1218847557706695</v>
+        <v>0.138022552872009</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3632587764603754</v>
+        <v>0.3867811153995099</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -2276,19 +2276,19 @@
         <v>19971</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13024</v>
+        <v>12789</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28616</v>
+        <v>27673</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.284042942668458</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1852373562166389</v>
+        <v>0.1818969911959329</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4070047170415308</v>
+        <v>0.3935903931440154</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>30</v>
@@ -2297,19 +2297,19 @@
         <v>31396</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>21981</v>
+        <v>22757</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>42354</v>
+        <v>41866</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2671859445661948</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1870616101939467</v>
+        <v>0.193670439284124</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3604389645228769</v>
+        <v>0.3562847296518989</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>30182</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>23907</v>
+        <v>23475</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>35964</v>
+        <v>36906</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6395137088494663</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5065438104584978</v>
+        <v>0.4974004878855789</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7620064127657088</v>
+        <v>0.7819695950038891</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>44</v>
@@ -2347,19 +2347,19 @@
         <v>44476</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>35578</v>
+        <v>36490</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>52837</v>
+        <v>52461</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6325817852959776</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5060191744308449</v>
+        <v>0.5189998624740461</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7514990288257788</v>
+        <v>0.7461516040858114</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>75</v>
@@ -2368,19 +2368,19 @@
         <v>74659</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>63786</v>
+        <v>64182</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>85386</v>
+        <v>84667</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6353660160582627</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5428282921079676</v>
+        <v>0.5461994570482096</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.726656212301242</v>
+        <v>0.7205336923537708</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>2610</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>784</v>
+        <v>814</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6825</v>
+        <v>7011</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02463780012515411</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007401200264183313</v>
+        <v>0.007685120185063639</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06443467709301551</v>
+        <v>0.06619085292161286</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -2493,19 +2493,19 @@
         <v>6805</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2936</v>
+        <v>2964</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>13878</v>
+        <v>14200</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.058102121596561</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0250671864469764</v>
+        <v>0.02530814563371643</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1184887976754362</v>
+        <v>0.1212388534577568</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>10</v>
@@ -2514,19 +2514,19 @@
         <v>9415</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4626</v>
+        <v>4580</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>16825</v>
+        <v>16108</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04220962975156159</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02074085666217828</v>
+        <v>0.02053314438544017</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0754314856866863</v>
+        <v>0.07221756551975886</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>13397</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7837</v>
+        <v>7982</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21831</v>
+        <v>21431</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1264750581246141</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07398626929547811</v>
+        <v>0.07535759617922951</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2060897094990915</v>
+        <v>0.2023192001610277</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>27</v>
@@ -2564,19 +2564,19 @@
         <v>29186</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>20807</v>
+        <v>20239</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>39721</v>
+        <v>39137</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2491971631166881</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1776557728257031</v>
+        <v>0.1728081446260887</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3391440507902885</v>
+        <v>0.3341586161524245</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>41</v>
@@ -2585,19 +2585,19 @@
         <v>42583</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>32287</v>
+        <v>31604</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>54680</v>
+        <v>55431</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1909153881685794</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1447517867755498</v>
+        <v>0.1416912043665661</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2451474064406716</v>
+        <v>0.2485136982977886</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>89921</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>81752</v>
+        <v>80949</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>96312</v>
+        <v>95972</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8488871417502318</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7717698195619586</v>
+        <v>0.7641921672774035</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9092222202957518</v>
+        <v>0.9060089614364731</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>83</v>
@@ -2635,19 +2635,19 @@
         <v>81130</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>70740</v>
+        <v>70293</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>90771</v>
+        <v>90703</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6927007152867509</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.603993368949522</v>
+        <v>0.6001714092833386</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7750192561243826</v>
+        <v>0.774441133298692</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>174</v>
@@ -2656,19 +2656,19 @@
         <v>171051</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>157760</v>
+        <v>157726</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>182515</v>
+        <v>183412</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7668749820798589</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7072887895023687</v>
+        <v>0.7071375727673113</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8182738219678278</v>
+        <v>0.8222940159058386</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>7598</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3638</v>
+        <v>3763</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14128</v>
+        <v>14270</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06790342275852534</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03251123594460386</v>
+        <v>0.03362956348797016</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.126264478443355</v>
+        <v>0.1275327482506357</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -2781,19 +2781,19 @@
         <v>9395</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4472</v>
+        <v>4445</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>16898</v>
+        <v>17592</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06131354091073534</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02918460064224869</v>
+        <v>0.02901240969587246</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1102847554513254</v>
+        <v>0.1148096938219786</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>16</v>
@@ -2802,19 +2802,19 @@
         <v>16993</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>9856</v>
+        <v>10584</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>26541</v>
+        <v>26617</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06409479306457924</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03717568342825879</v>
+        <v>0.03992157120802439</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1001097525806934</v>
+        <v>0.1003986836454061</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>23202</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>15578</v>
+        <v>15571</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>32429</v>
+        <v>32270</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.207359516046182</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1392231018866223</v>
+        <v>0.1391615977669024</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2898229799036844</v>
+        <v>0.2884000804905593</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>30</v>
@@ -2852,19 +2852,19 @@
         <v>33534</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>23999</v>
+        <v>24074</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>45597</v>
+        <v>44552</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2188518675383881</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1566280842468688</v>
+        <v>0.1571133129190484</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2975822299087735</v>
+        <v>0.2907645351110249</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>54</v>
@@ -2873,19 +2873,19 @@
         <v>56736</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>44627</v>
+        <v>45098</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>70833</v>
+        <v>71332</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2140015336357934</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.168329502125788</v>
+        <v>0.1701068520042674</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2671751058254697</v>
+        <v>0.2690569603254068</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>81093</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>70418</v>
+        <v>71068</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>89360</v>
+        <v>89422</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.7247370611952927</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6293321890968799</v>
+        <v>0.6351410306205362</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7986233400957983</v>
+        <v>0.7991756053216692</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>106</v>
@@ -2923,19 +2923,19 @@
         <v>110297</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>98234</v>
+        <v>98934</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>121599</v>
+        <v>120511</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.7198345915508766</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6411075174430326</v>
+        <v>0.6456786207050198</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7935989447425503</v>
+        <v>0.7864941827009447</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>190</v>
@@ -2944,19 +2944,19 @@
         <v>191390</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>175331</v>
+        <v>175795</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>205457</v>
+        <v>204793</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7219036732996273</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6613307814855038</v>
+        <v>0.6630808392495446</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7749636141681356</v>
+        <v>0.7724591185955253</v>
       </c>
     </row>
     <row r="35">
@@ -3048,19 +3048,19 @@
         <v>29806</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>21270</v>
+        <v>21688</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>41682</v>
+        <v>41149</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05931846602711142</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04233154225736865</v>
+        <v>0.04316393672243903</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08295476767335691</v>
+        <v>0.08189369985587937</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>46</v>
@@ -3069,19 +3069,19 @@
         <v>48960</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>35819</v>
+        <v>37059</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>65019</v>
+        <v>65040</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.07233614551362993</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.05292074183494461</v>
+        <v>0.05475229406411029</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09606210838512809</v>
+        <v>0.09609313802415333</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>78</v>
@@ -3090,19 +3090,19 @@
         <v>78766</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>62499</v>
+        <v>62533</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>96668</v>
+        <v>96481</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.06678972219320285</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05299672259351646</v>
+        <v>0.0530254378908319</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0819702105084536</v>
+        <v>0.081811293491312</v>
       </c>
     </row>
     <row r="37">
@@ -3119,19 +3119,19 @@
         <v>84223</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>68586</v>
+        <v>69075</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>102466</v>
+        <v>103252</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1676188681038333</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1364988289842348</v>
+        <v>0.1374718465026886</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2039253649156608</v>
+        <v>0.2054901272644824</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>146</v>
@@ -3140,19 +3140,19 @@
         <v>157952</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>134168</v>
+        <v>136621</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>179763</v>
+        <v>180706</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2333658042536964</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1982270882978441</v>
+        <v>0.201850240510784</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.265590785662426</v>
+        <v>0.266983415648398</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>234</v>
@@ -3161,19 +3161,19 @@
         <v>242175</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>215696</v>
+        <v>216785</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>271637</v>
+        <v>270684</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2053531050406083</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1829007391368441</v>
+        <v>0.1838241909055998</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2303355969406718</v>
+        <v>0.2295281752619562</v>
       </c>
     </row>
     <row r="38">
@@ -3190,19 +3190,19 @@
         <v>388438</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>368769</v>
+        <v>367864</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>406832</v>
+        <v>405105</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7730626658690553</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7339173579621318</v>
+        <v>0.7321171344843025</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8096709052238545</v>
+        <v>0.8062339847428373</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>469</v>
@@ -3211,19 +3211,19 @@
         <v>469930</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>445142</v>
+        <v>444283</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>495122</v>
+        <v>493120</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6942980502326737</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6576742286959046</v>
+        <v>0.6564059367411272</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7315172164839109</v>
+        <v>0.7285604723743735</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>872</v>
@@ -3232,19 +3232,19 @@
         <v>858368</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>826418</v>
+        <v>829621</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>889753</v>
+        <v>888570</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7278571727661889</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.700765285243385</v>
+        <v>0.7034815820812487</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7544702547005391</v>
+        <v>0.75346700022295</v>
       </c>
     </row>
     <row r="39">
@@ -3580,19 +3580,19 @@
         <v>3016</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7739</v>
+        <v>8208</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0681047707035599</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02094479646338702</v>
+        <v>0.02087622884203439</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1747636624162674</v>
+        <v>0.1853591685825784</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -3601,19 +3601,19 @@
         <v>10633</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5600</v>
+        <v>5404</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17279</v>
+        <v>17682</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2174736122194185</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1145378587104535</v>
+        <v>0.1105301415265296</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3533962853081619</v>
+        <v>0.361637313709564</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -3622,19 +3622,19 @@
         <v>13649</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8121</v>
+        <v>7828</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22375</v>
+        <v>22442</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1464870249723782</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08716236067733456</v>
+        <v>0.0840139687853067</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2401423180699133</v>
+        <v>0.2408562081604694</v>
       </c>
     </row>
     <row r="5">
@@ -3651,19 +3651,19 @@
         <v>10531</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5859</v>
+        <v>5727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18087</v>
+        <v>17199</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2378128751901545</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1323097687803722</v>
+        <v>0.1293355340009048</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4084679056427313</v>
+        <v>0.3883996895544973</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -3672,19 +3672,19 @@
         <v>16766</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10780</v>
+        <v>10514</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23760</v>
+        <v>23218</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3429014738617222</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2204720829107633</v>
+        <v>0.2150288576103778</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4859475212632902</v>
+        <v>0.4748681516169432</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -3693,19 +3693,19 @@
         <v>27296</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19264</v>
+        <v>19286</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37232</v>
+        <v>36960</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2929587890115057</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2067559447770896</v>
+        <v>0.2069875497191352</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3995894223387924</v>
+        <v>0.3966774403265352</v>
       </c>
     </row>
     <row r="6">
@@ -3722,19 +3722,19 @@
         <v>30735</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23929</v>
+        <v>24078</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>36461</v>
+        <v>36511</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6940823541062856</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5403833142481086</v>
+        <v>0.5437523561372509</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8233941236191521</v>
+        <v>0.8245215834180365</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -3743,19 +3743,19 @@
         <v>21495</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15215</v>
+        <v>14397</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28973</v>
+        <v>29250</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4396249139188593</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.311179493193483</v>
+        <v>0.2944559724879733</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5925752160573707</v>
+        <v>0.5982280592088336</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>47</v>
@@ -3764,19 +3764,19 @@
         <v>52230</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>42154</v>
+        <v>42094</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>61750</v>
+        <v>61623</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5605541860161161</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4524129059155835</v>
+        <v>0.4517787900333122</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6627312012132888</v>
+        <v>0.6613636240667284</v>
       </c>
     </row>
     <row r="7">
@@ -3868,19 +3868,19 @@
         <v>10644</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5098</v>
+        <v>5308</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19525</v>
+        <v>19372</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1343851287635484</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06436432491291029</v>
+        <v>0.0670204159824679</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2465172370563332</v>
+        <v>0.244583440958103</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -3889,19 +3889,19 @@
         <v>17522</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10896</v>
+        <v>10182</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27696</v>
+        <v>27341</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.171630112173945</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1067247493012499</v>
+        <v>0.09973167600771837</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2712800992236515</v>
+        <v>0.2678071256447668</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -3910,19 +3910,19 @@
         <v>28166</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18444</v>
+        <v>18254</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>39785</v>
+        <v>40809</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1553588921050411</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1017364204646662</v>
+        <v>0.1006886570608975</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2194464088693524</v>
+        <v>0.2250973800409695</v>
       </c>
     </row>
     <row r="9">
@@ -3939,19 +3939,19 @@
         <v>12875</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6501</v>
+        <v>6564</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22163</v>
+        <v>23581</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1625542139729856</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08208644324453453</v>
+        <v>0.08287277527056393</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2798230135342271</v>
+        <v>0.29773463046171</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -3960,19 +3960,19 @@
         <v>22677</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14884</v>
+        <v>15515</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>32903</v>
+        <v>32508</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2221223409661559</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1457878964389658</v>
+        <v>0.15196454954596</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3222875160243507</v>
+        <v>0.3184120415882924</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>30</v>
@@ -3981,19 +3981,19 @@
         <v>35552</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>24929</v>
+        <v>25072</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>47271</v>
+        <v>47930</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1960988066630709</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1375058284295428</v>
+        <v>0.138292078416824</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2607416807390026</v>
+        <v>0.2643720241720938</v>
       </c>
     </row>
     <row r="10">
@@ -4010,19 +4010,19 @@
         <v>55685</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46495</v>
+        <v>45414</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64414</v>
+        <v>64634</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.703060657263466</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5870385161481847</v>
+        <v>0.5733885675387872</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8132800469146535</v>
+        <v>0.8160554820803922</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -4031,19 +4031,19 @@
         <v>61894</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51627</v>
+        <v>50627</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71750</v>
+        <v>71276</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6062475468598991</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5056837415673976</v>
+        <v>0.4958921042406368</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7027898677583364</v>
+        <v>0.6981463676778468</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>108</v>
@@ -4052,19 +4052,19 @@
         <v>117578</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>101901</v>
+        <v>102272</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130322</v>
+        <v>130164</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6485423012318881</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5620689767277502</v>
+        <v>0.564116332374387</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7188371388440928</v>
+        <v>0.7179628811696812</v>
       </c>
     </row>
     <row r="11">
@@ -4156,19 +4156,19 @@
         <v>7170</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2085</v>
+        <v>3031</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14886</v>
+        <v>15100</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1286211118408519</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03740125034218472</v>
+        <v>0.0543794741828974</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2670602102408414</v>
+        <v>0.2708965123630519</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -4177,19 +4177,19 @@
         <v>9821</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4479</v>
+        <v>4398</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17263</v>
+        <v>16431</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1228113460672206</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05600981675790419</v>
+        <v>0.05499122769266634</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2158688471633711</v>
+        <v>0.2054750925707227</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -4198,19 +4198,19 @@
         <v>16991</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>9642</v>
+        <v>9881</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>25676</v>
+        <v>26202</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1251976750624898</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07104996890189605</v>
+        <v>0.07281251116453144</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1891958191041029</v>
+        <v>0.1930752921377805</v>
       </c>
     </row>
     <row r="13">
@@ -4227,19 +4227,19 @@
         <v>4096</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1050</v>
+        <v>1022</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9670</v>
+        <v>9778</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0734769022655143</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01882879295484981</v>
+        <v>0.01833569684573092</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1734722137143042</v>
+        <v>0.175415370720534</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -4248,19 +4248,19 @@
         <v>13514</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7224</v>
+        <v>7322</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21390</v>
+        <v>21098</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1689865129783612</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09033242428820819</v>
+        <v>0.0915600146213796</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2674787481397043</v>
+        <v>0.2638329829773021</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -4269,19 +4269,19 @@
         <v>17609</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10426</v>
+        <v>11206</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26253</v>
+        <v>26066</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1297564713120714</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07682693650647336</v>
+        <v>0.08257019543043705</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1934463714028163</v>
+        <v>0.1920743625021563</v>
       </c>
     </row>
     <row r="14">
@@ -4298,19 +4298,19 @@
         <v>44477</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37312</v>
+        <v>36616</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>50559</v>
+        <v>49711</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7979019858936338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6693619729098088</v>
+        <v>0.6568921258083589</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9070210732869148</v>
+        <v>0.8918056813513647</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>53</v>
@@ -4319,19 +4319,19 @@
         <v>56634</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48064</v>
+        <v>48151</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>65071</v>
+        <v>64472</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7082021409544182</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.601034277755736</v>
+        <v>0.6021270414613725</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8137161070983124</v>
+        <v>0.8062277305739327</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>96</v>
@@ -4340,19 +4340,19 @@
         <v>101110</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>90091</v>
+        <v>88902</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>110963</v>
+        <v>110368</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7450458536254387</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6638466026251137</v>
+        <v>0.6550845162554408</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.817644658775541</v>
+        <v>0.8132637537217227</v>
       </c>
     </row>
     <row r="15">
@@ -4444,19 +4444,19 @@
         <v>6483</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2267</v>
+        <v>2185</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12925</v>
+        <v>12920</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.101259900206691</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03540019926923758</v>
+        <v>0.03412477057107512</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2018601372560663</v>
+        <v>0.201788377459094</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -4465,19 +4465,19 @@
         <v>10754</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5438</v>
+        <v>5359</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18462</v>
+        <v>17686</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1256729597428547</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06354715326776268</v>
+        <v>0.06262819200797119</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2157380523498177</v>
+        <v>0.2066732737159465</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -4486,19 +4486,19 @@
         <v>17238</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10848</v>
+        <v>10527</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26981</v>
+        <v>26651</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1152244920401813</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07251568222517428</v>
+        <v>0.0703672474572537</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1803497823917513</v>
+        <v>0.1781491457786088</v>
       </c>
     </row>
     <row r="17">
@@ -4515,19 +4515,19 @@
         <v>14801</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8446</v>
+        <v>8793</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21903</v>
+        <v>22800</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2311662973720528</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1319163381105378</v>
+        <v>0.1373271988601098</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3420788507782384</v>
+        <v>0.3560972849438245</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -4536,19 +4536,19 @@
         <v>23516</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15788</v>
+        <v>15046</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33159</v>
+        <v>32361</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2748084471334129</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1844986147852092</v>
+        <v>0.1758191370360642</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3874922968898949</v>
+        <v>0.3781674451729864</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -4557,19 +4557,19 @@
         <v>38318</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>28221</v>
+        <v>28308</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50006</v>
+        <v>50328</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2561301822653275</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1886389853336578</v>
+        <v>0.1892208733326746</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3342582095258886</v>
+        <v>0.3364126681476193</v>
       </c>
     </row>
     <row r="18">
@@ -4586,19 +4586,19 @@
         <v>42743</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>35642</v>
+        <v>34549</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>49915</v>
+        <v>49810</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6675738024212562</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5566565486754487</v>
+        <v>0.5395980399078483</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.779582222373001</v>
+        <v>0.7779463191886176</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>49</v>
@@ -4607,19 +4607,19 @@
         <v>51303</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41184</v>
+        <v>41797</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>60042</v>
+        <v>60444</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5995185931237325</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4812661444234691</v>
+        <v>0.4884357162628766</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7016419013229628</v>
+        <v>0.7063320325031955</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>87</v>
@@ -4628,19 +4628,19 @@
         <v>94047</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>81414</v>
+        <v>81513</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>105550</v>
+        <v>106467</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6286453256944912</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5442064113708053</v>
+        <v>0.5448640296991427</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7055356732967751</v>
+        <v>0.7116655697813185</v>
       </c>
     </row>
     <row r="19">
@@ -4732,19 +4732,19 @@
         <v>3292</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8076</v>
+        <v>8203</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1041290401066137</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03191189078939892</v>
+        <v>0.03154838439733654</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2554772450634937</v>
+        <v>0.2594989778386382</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -4753,19 +4753,19 @@
         <v>7412</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3164</v>
+        <v>3157</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13133</v>
+        <v>13242</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.148662102357822</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06345676308591321</v>
+        <v>0.06332449018615351</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2634221840416608</v>
+        <v>0.2656194875632955</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -4774,19 +4774,19 @@
         <v>10703</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5397</v>
+        <v>5261</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18912</v>
+        <v>17787</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1313816308619782</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06625081147713764</v>
+        <v>0.06458266525341076</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2321414077669913</v>
+        <v>0.2183333926348133</v>
       </c>
     </row>
     <row r="21">
@@ -4803,19 +4803,19 @@
         <v>5683</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1219</v>
+        <v>2192</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10640</v>
+        <v>11247</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1797784215952609</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03856281062401731</v>
+        <v>0.06935490691364468</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.336595128957159</v>
+        <v>0.3557760373870922</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -4824,19 +4824,19 @@
         <v>15549</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9292</v>
+        <v>9961</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22034</v>
+        <v>23294</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3118918860908912</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.186370670908034</v>
+        <v>0.1998019431024812</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4419708426740984</v>
+        <v>0.4672383649106497</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>20</v>
@@ -4845,19 +4845,19 @@
         <v>21232</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>14252</v>
+        <v>14132</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>29161</v>
+        <v>29503</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2606269866650278</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1749434865493097</v>
+        <v>0.1734681331761736</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3579468919899527</v>
+        <v>0.3621465339195454</v>
       </c>
     </row>
     <row r="22">
@@ -4874,19 +4874,19 @@
         <v>22637</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17056</v>
+        <v>16576</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27402</v>
+        <v>27246</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7160925382981254</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5395282331077217</v>
+        <v>0.5243493935643063</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8668137924665992</v>
+        <v>0.8619008975975314</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -4895,19 +4895,19 @@
         <v>26894</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20209</v>
+        <v>20195</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33606</v>
+        <v>34139</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5394460115512868</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.405360381570188</v>
+        <v>0.4050752573419686</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6740794675610002</v>
+        <v>0.6847685151119898</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>46</v>
@@ -4916,19 +4916,19 @@
         <v>49531</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40820</v>
+        <v>40475</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>57938</v>
+        <v>58500</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.607991382472994</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5010591180745954</v>
+        <v>0.4968295133732629</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7111867991742644</v>
+        <v>0.7180825244154236</v>
       </c>
     </row>
     <row r="23">
@@ -5020,19 +5020,19 @@
         <v>8600</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4291</v>
+        <v>4313</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14944</v>
+        <v>15061</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1661706633428514</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0828997884952096</v>
+        <v>0.08332855545592172</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2887319736435453</v>
+        <v>0.2909948815549818</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -5041,19 +5041,19 @@
         <v>11800</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6434</v>
+        <v>6462</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18213</v>
+        <v>18995</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1680599146359669</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09163046444171911</v>
+        <v>0.09202934502287111</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2593962767368153</v>
+        <v>0.27053511009506</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -5062,19 +5062,19 @@
         <v>20400</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>13050</v>
+        <v>12897</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>29892</v>
+        <v>29813</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1672582252708426</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1069934845424268</v>
+        <v>0.1057442015950205</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2450787117048042</v>
+        <v>0.2444294233381189</v>
       </c>
     </row>
     <row r="25">
@@ -5091,19 +5091,19 @@
         <v>6333</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2120</v>
+        <v>2151</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12637</v>
+        <v>12593</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1223701685508911</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04095264767805902</v>
+        <v>0.04156634654569885</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2441552750066854</v>
+        <v>0.2433138638082303</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -5112,19 +5112,19 @@
         <v>5387</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2141</v>
+        <v>2109</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12729</v>
+        <v>10874</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07672147039440406</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03049131932090319</v>
+        <v>0.03003901718528672</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1812997404257021</v>
+        <v>0.1548751228940425</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -5133,19 +5133,19 @@
         <v>11720</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6375</v>
+        <v>6334</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20195</v>
+        <v>19133</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09609214700962504</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05226795407276522</v>
+        <v>0.051930094528761</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1655769621547978</v>
+        <v>0.1568687975091466</v>
       </c>
     </row>
     <row r="26">
@@ -5162,19 +5162,19 @@
         <v>36822</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>29489</v>
+        <v>29247</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>43054</v>
+        <v>42154</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7114591681062575</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5697727669122171</v>
+        <v>0.5650897894576237</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8318578346089364</v>
+        <v>0.8144673336811264</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>53</v>
@@ -5183,19 +5183,19 @@
         <v>53025</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>45535</v>
+        <v>44757</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>59479</v>
+        <v>59481</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7552186149696291</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6485356355366202</v>
+        <v>0.6374592652422482</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8471316934905606</v>
+        <v>0.8471613085508548</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>89</v>
@@ -5204,19 +5204,19 @@
         <v>89848</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>79336</v>
+        <v>80090</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>99389</v>
+        <v>98479</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7366496277195324</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6504632521409269</v>
+        <v>0.6566503261065814</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8148794095234735</v>
+        <v>0.8074149906457955</v>
       </c>
     </row>
     <row r="27">
@@ -5308,19 +5308,19 @@
         <v>11372</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5773</v>
+        <v>5928</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19606</v>
+        <v>19615</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.101295373251232</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05142061061276795</v>
+        <v>0.0528025960932266</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1746426930031933</v>
+        <v>0.1747260037844952</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -5329,19 +5329,19 @@
         <v>11917</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6248</v>
+        <v>5992</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21185</v>
+        <v>20826</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08394202810200187</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04401217524829341</v>
+        <v>0.04220582873053475</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1492331370949383</v>
+        <v>0.1466986880461507</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>20</v>
@@ -5350,19 +5350,19 @@
         <v>23288</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>14968</v>
+        <v>14200</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>36071</v>
+        <v>34839</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09160507282441734</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05887608345492779</v>
+        <v>0.05585621467354173</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1418873653081389</v>
+        <v>0.1370402941903874</v>
       </c>
     </row>
     <row r="29">
@@ -5379,19 +5379,19 @@
         <v>15009</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8471</v>
+        <v>8122</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>24997</v>
+        <v>22952</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1336989562001097</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07545942931815053</v>
+        <v>0.07234606792663505</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2226636069911624</v>
+        <v>0.2044524083876908</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -5400,19 +5400,19 @@
         <v>26711</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>18172</v>
+        <v>17280</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>37444</v>
+        <v>37335</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1881550923578102</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1280049866016826</v>
+        <v>0.1217209819789517</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.263761087253203</v>
+        <v>0.2629956064524065</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>37</v>
@@ -5421,19 +5421,19 @@
         <v>41720</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>29557</v>
+        <v>30796</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>55343</v>
+        <v>56372</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1641078666962542</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1162627870359176</v>
+        <v>0.1211379225887615</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2176919262358817</v>
+        <v>0.2217388422666486</v>
       </c>
     </row>
     <row r="30">
@@ -5450,19 +5450,19 @@
         <v>85882</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>74519</v>
+        <v>75758</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>94371</v>
+        <v>94482</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7650056705486583</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.6637878187249762</v>
+        <v>0.6748223252592189</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8406245683469978</v>
+        <v>0.8416161416194705</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>95</v>
@@ -5471,19 +5471,19 @@
         <v>103335</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>91284</v>
+        <v>91136</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>113681</v>
+        <v>112621</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.727902879540188</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6430153486453388</v>
+        <v>0.6419743156804221</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8007837958532434</v>
+        <v>0.7933180885070963</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>172</v>
@@ -5492,19 +5492,19 @@
         <v>189217</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>172239</v>
+        <v>171712</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>203177</v>
+        <v>202937</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7442870604793285</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.6775018764039792</v>
+        <v>0.6754292581143145</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7991994802601776</v>
+        <v>0.7982541968964224</v>
       </c>
     </row>
     <row r="31">
@@ -5596,19 +5596,19 @@
         <v>4354</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10698</v>
+        <v>10855</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03605775045472355</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.009199699697272438</v>
+        <v>0.009234607687291337</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08859462272728443</v>
+        <v>0.08989642982750223</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -5617,19 +5617,19 @@
         <v>15748</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>9008</v>
+        <v>9000</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>24592</v>
+        <v>25403</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09578210622353721</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05478556953936481</v>
+        <v>0.05473843991600041</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1495708642920941</v>
+        <v>0.1545049664343891</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>18</v>
@@ -5638,19 +5638,19 @@
         <v>20102</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>12262</v>
+        <v>13084</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>30464</v>
+        <v>31277</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07049236487520232</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04299942372761582</v>
+        <v>0.0458809118641465</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1068273396041778</v>
+        <v>0.1096802802649249</v>
       </c>
     </row>
     <row r="33">
@@ -5667,19 +5667,19 @@
         <v>14381</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>7714</v>
+        <v>7646</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>26057</v>
+        <v>26267</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1190968692192617</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06388482616856116</v>
+        <v>0.06331894714136116</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2157916194974221</v>
+        <v>0.2175246910503329</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>26</v>
@@ -5688,19 +5688,19 @@
         <v>28690</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>19268</v>
+        <v>19739</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>39558</v>
+        <v>40345</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1744968364736652</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1171877459297702</v>
+        <v>0.1200568925807957</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2405943721374907</v>
+        <v>0.2453814023541896</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>37</v>
@@ -5709,19 +5709,19 @@
         <v>43071</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>31339</v>
+        <v>30284</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>56373</v>
+        <v>56878</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1510382185524707</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1098952731436793</v>
+        <v>0.1061953047962406</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1976832073565253</v>
+        <v>0.1994546304766033</v>
       </c>
     </row>
     <row r="34">
@@ -5738,19 +5738,19 @@
         <v>102017</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>91719</v>
+        <v>90998</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>109529</v>
+        <v>109549</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8448453803260147</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.759566950820313</v>
+        <v>0.7535982510624821</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9070603336921136</v>
+        <v>0.9072226488263183</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>111</v>
@@ -5759,19 +5759,19 @@
         <v>119979</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>107556</v>
+        <v>106419</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>131916</v>
+        <v>130956</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.7297210573027976</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6541651562318539</v>
+        <v>0.6472535382878207</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8023254659415835</v>
+        <v>0.7964887972334875</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>202</v>
@@ -5780,19 +5780,19 @@
         <v>221995</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>207445</v>
+        <v>207719</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>236736</v>
+        <v>236468</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7784694165723269</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7274456328381512</v>
+        <v>0.7284076261758323</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8301589233440758</v>
+        <v>0.8292220786778205</v>
       </c>
     </row>
     <row r="35">
@@ -5884,19 +5884,19 @@
         <v>54930</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>41084</v>
+        <v>42349</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>71975</v>
+        <v>72401</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0981534888294642</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.07341173984082779</v>
+        <v>0.07567154546807385</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1286104641242176</v>
+        <v>0.1293721925639718</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>86</v>
@@ -5905,19 +5905,19 @@
         <v>95607</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>77076</v>
+        <v>77879</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>117777</v>
+        <v>114552</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1286810930043152</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1037393910890146</v>
+        <v>0.1048203672243406</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1585213889195453</v>
+        <v>0.1541796475383854</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>135</v>
@@ -5926,19 +5926,19 @@
         <v>150537</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>128967</v>
+        <v>128282</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>176872</v>
+        <v>176251</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1155656161995074</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09900616427448246</v>
+        <v>0.09848030172927436</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1357828004891888</v>
+        <v>0.1353059542743178</v>
       </c>
     </row>
     <row r="37">
@@ -5955,19 +5955,19 @@
         <v>83709</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>68244</v>
+        <v>66315</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>104482</v>
+        <v>104273</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1495779131260853</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1219434865830812</v>
+        <v>0.1184968755747604</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1866965547753222</v>
+        <v>0.1863219281191746</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>143</v>
@@ -5976,19 +5976,19 @@
         <v>152810</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>129703</v>
+        <v>132960</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>177227</v>
+        <v>177987</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2056734809295901</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1745720028286289</v>
+        <v>0.178956643631412</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2385364833988306</v>
+        <v>0.2395598669249426</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>216</v>
@@ -5997,19 +5997,19 @@
         <v>236520</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>207759</v>
+        <v>207890</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>265386</v>
+        <v>265733</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1815733218026092</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.159494486626437</v>
+        <v>0.1595950095226053</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2037340375554767</v>
+        <v>0.204000066084368</v>
       </c>
     </row>
     <row r="38">
@@ -6026,19 +6026,19 @@
         <v>420997</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>398432</v>
+        <v>397822</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>441159</v>
+        <v>443466</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7522685980444506</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7119470267056931</v>
+        <v>0.7108565115439353</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7882950058111217</v>
+        <v>0.7924168999789841</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>465</v>
@@ -6047,19 +6047,19 @@
         <v>494558</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>464219</v>
+        <v>467327</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>521106</v>
+        <v>518344</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6656454260660947</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6248111696040231</v>
+        <v>0.6289937898126385</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7013772862082298</v>
+        <v>0.6976599656593261</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>847</v>
@@ -6068,19 +6068,19 @@
         <v>915555</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>876943</v>
+        <v>881057</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>948796</v>
+        <v>948505</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7028610619978835</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6732190854028761</v>
+        <v>0.6763773833606554</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7283798702316111</v>
+        <v>0.7281562228016596</v>
       </c>
     </row>
     <row r="39">
@@ -6416,19 +6416,19 @@
         <v>4871</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1638</v>
+        <v>1625</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9438</v>
+        <v>9650</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1252350124202522</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04210975051438051</v>
+        <v>0.04178963530721249</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2426395182319027</v>
+        <v>0.2480957949227565</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -6437,19 +6437,19 @@
         <v>4514</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1071</v>
+        <v>1125</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9637</v>
+        <v>9994</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09138490871275827</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02168775201414844</v>
+        <v>0.02277630592878067</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1951137063796587</v>
+        <v>0.2023405984885686</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -6458,19 +6458,19 @@
         <v>9385</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4977</v>
+        <v>4860</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17627</v>
+        <v>17178</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1062979794416478</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05637492358448714</v>
+        <v>0.0550471728508429</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1996537368148444</v>
+        <v>0.1945754993516355</v>
       </c>
     </row>
     <row r="5">
@@ -6487,19 +6487,19 @@
         <v>4127</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1577</v>
+        <v>1593</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8453</v>
+        <v>8479</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1061058595687099</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04054286753788391</v>
+        <v>0.04095363349199149</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2173302222949585</v>
+        <v>0.217981903107381</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -6508,19 +6508,19 @@
         <v>15747</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9306</v>
+        <v>9973</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23159</v>
+        <v>23610</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.318825000119189</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1884178152383627</v>
+        <v>0.2019267764623892</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4688834016990431</v>
+        <v>0.4780146232513255</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -6529,19 +6529,19 @@
         <v>19874</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12096</v>
+        <v>12273</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29453</v>
+        <v>29472</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2251090217035724</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1370078895763133</v>
+        <v>0.1390100278408969</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.333606001097661</v>
+        <v>0.3338223469658896</v>
       </c>
     </row>
     <row r="6">
@@ -6558,19 +6558,19 @@
         <v>29898</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24662</v>
+        <v>24561</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34256</v>
+        <v>34274</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7686591280110379</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.634056991951107</v>
+        <v>0.6314607538729838</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8807110049358502</v>
+        <v>0.8811770348607559</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -6579,19 +6579,19 @@
         <v>29130</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>21442</v>
+        <v>21463</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36451</v>
+        <v>35663</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5897900911680528</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4341354292530372</v>
+        <v>0.4345612066398382</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7380123330203476</v>
+        <v>0.7220609704654061</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>58</v>
@@ -6600,19 +6600,19 @@
         <v>59028</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>49781</v>
+        <v>49435</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67562</v>
+        <v>67385</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6685929988547799</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5638584581087999</v>
+        <v>0.5599397939503866</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7652500848006578</v>
+        <v>0.7632464994018656</v>
       </c>
     </row>
     <row r="7">
@@ -6704,19 +6704,19 @@
         <v>4143</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1035</v>
+        <v>1046</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10171</v>
+        <v>9555</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04745966391687853</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01185171161987237</v>
+        <v>0.01198338693247598</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.116514408595359</v>
+        <v>0.1094519781314313</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -6725,19 +6725,19 @@
         <v>10421</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5074</v>
+        <v>4981</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18576</v>
+        <v>18753</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0904364983776059</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04403311109741097</v>
+        <v>0.04322508024248381</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1612095092778151</v>
+        <v>0.1627505719848929</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -6746,19 +6746,19 @@
         <v>14564</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7577</v>
+        <v>7634</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>23845</v>
+        <v>24226</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07191189998316598</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03741436382569232</v>
+        <v>0.03769330583423098</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1177405114996324</v>
+        <v>0.1196212335693877</v>
       </c>
     </row>
     <row r="9">
@@ -6775,19 +6775,19 @@
         <v>7726</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3886</v>
+        <v>4036</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14049</v>
+        <v>14623</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08850662896954234</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04451614837282625</v>
+        <v>0.04623710600633213</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1609333797810232</v>
+        <v>0.1675071013221985</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>18</v>
@@ -6796,19 +6796,19 @@
         <v>23298</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15385</v>
+        <v>14073</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>34286</v>
+        <v>34527</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2021889713029027</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.133518082769186</v>
+        <v>0.1221358220446599</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2975523365910959</v>
+        <v>0.2996421913039959</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>27</v>
@@ -6817,19 +6817,19 @@
         <v>31024</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>22132</v>
+        <v>21545</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>43432</v>
+        <v>43494</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1531876950877095</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.109279988143212</v>
+        <v>0.1063807961739916</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2144550278864879</v>
+        <v>0.2147590520737163</v>
       </c>
     </row>
     <row r="10">
@@ -6846,19 +6846,19 @@
         <v>75426</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68320</v>
+        <v>68421</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80692</v>
+        <v>80511</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8640337071135792</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7826380181493188</v>
+        <v>0.7837932090743918</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9243650621336258</v>
+        <v>0.9222822438393836</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -6867,19 +6867,19 @@
         <v>81509</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>70674</v>
+        <v>69451</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91757</v>
+        <v>91856</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7073745303194914</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.613341639567525</v>
+        <v>0.6027228514059082</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7963065558029558</v>
+        <v>0.7971641091207875</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>146</v>
@@ -6888,19 +6888,19 @@
         <v>156935</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143360</v>
+        <v>144393</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>168885</v>
+        <v>169448</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7749004049291245</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7078698067887775</v>
+        <v>0.7129686084152228</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.833905479759001</v>
+        <v>0.8366859567997461</v>
       </c>
     </row>
     <row r="11">
@@ -6992,19 +6992,19 @@
         <v>2770</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>724</v>
+        <v>744</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7589</v>
+        <v>7474</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04359629968052274</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01139434492590436</v>
+        <v>0.0117075865638633</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1194323552252996</v>
+        <v>0.1176089404850633</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -7013,19 +7013,19 @@
         <v>4477</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12063</v>
+        <v>11974</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05603825202687125</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01539825270651756</v>
+        <v>0.01544963995606581</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1509857184063206</v>
+        <v>0.1498721111504753</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -7034,19 +7034,19 @@
         <v>7248</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2765</v>
+        <v>2746</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14965</v>
+        <v>14906</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0505263994796101</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0192780347207014</v>
+        <v>0.01914203559299747</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1043267204360272</v>
+        <v>0.1039183900980444</v>
       </c>
     </row>
     <row r="13">
@@ -7063,19 +7063,19 @@
         <v>10362</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5590</v>
+        <v>5715</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16903</v>
+        <v>16446</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.163055295371617</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08796230061536331</v>
+        <v>0.0899398071581749</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2659997802329081</v>
+        <v>0.2588006419253981</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -7084,19 +7084,19 @@
         <v>8029</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3408</v>
+        <v>3553</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15285</v>
+        <v>14611</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1004951948169603</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04265064433575132</v>
+        <v>0.04447445184978706</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1913070980795037</v>
+        <v>0.1828743315564238</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -7105,19 +7105,19 @@
         <v>18391</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11495</v>
+        <v>11754</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26609</v>
+        <v>27753</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.128209659556917</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08013681106535792</v>
+        <v>0.08194333463161037</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.185505014834228</v>
+        <v>0.1934810209515767</v>
       </c>
     </row>
     <row r="14">
@@ -7134,19 +7134,19 @@
         <v>50414</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43452</v>
+        <v>44003</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>55623</v>
+        <v>55479</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7933484049478603</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6837850236833715</v>
+        <v>0.6924615953070091</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8753213162698611</v>
+        <v>0.8730538247664541</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -7155,19 +7155,19 @@
         <v>67390</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>59218</v>
+        <v>58864</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73808</v>
+        <v>73444</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8434665531561685</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7411826459748819</v>
+        <v>0.7367461693521704</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9237896514527981</v>
+        <v>0.9192281751485413</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>115</v>
@@ -7176,19 +7176,19 @@
         <v>117805</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>107571</v>
+        <v>106524</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>126702</v>
+        <v>125767</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8212639409634729</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7499217399172567</v>
+        <v>0.7426244712195701</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8832938907471536</v>
+        <v>0.8767729994798582</v>
       </c>
     </row>
     <row r="15">
@@ -7280,19 +7280,19 @@
         <v>5865</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2478</v>
+        <v>2559</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11284</v>
+        <v>11373</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09063737397286879</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03829970502386777</v>
+        <v>0.03954869122487498</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1743663200372319</v>
+        <v>0.1757538187597471</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8059</v>
+        <v>7744</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02807564522328345</v>
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.088000610788904</v>
+        <v>0.0845698700126512</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -7322,19 +7322,19 @@
         <v>8436</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4382</v>
+        <v>4125</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15727</v>
+        <v>15622</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05398001047861776</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02803724584553982</v>
+        <v>0.02639287772892442</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1006302857872719</v>
+        <v>0.09995687110944296</v>
       </c>
     </row>
     <row r="17">
@@ -7351,19 +7351,19 @@
         <v>8093</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4150</v>
+        <v>3765</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14916</v>
+        <v>13682</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1250624519146702</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06413754674241474</v>
+        <v>0.0581833451027311</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2304927916056757</v>
+        <v>0.2114290081682972</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -7372,19 +7372,19 @@
         <v>23555</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14953</v>
+        <v>14395</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33585</v>
+        <v>33621</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2572211965325685</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1632863572083086</v>
+        <v>0.1571985954735944</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3667490105447898</v>
+        <v>0.3671490060620162</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>28</v>
@@ -7393,19 +7393,19 @@
         <v>31648</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22458</v>
+        <v>21917</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43594</v>
+        <v>43169</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2024994287570709</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1436987654358033</v>
+        <v>0.1402389801348783</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2789373524195849</v>
+        <v>0.2762179885506367</v>
       </c>
     </row>
     <row r="18">
@@ -7422,19 +7422,19 @@
         <v>50754</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>43479</v>
+        <v>43629</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>56271</v>
+        <v>56191</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.784300174112461</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6718860679667903</v>
+        <v>0.6742044980440995</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8695618081807047</v>
+        <v>0.8683241418526113</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>55</v>
@@ -7443,19 +7443,19 @@
         <v>65448</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>55428</v>
+        <v>54587</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>74488</v>
+        <v>74322</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.714703158244148</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6052785392708476</v>
+        <v>0.5961010545238468</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8134214391782574</v>
+        <v>0.8116057952246836</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>110</v>
@@ -7464,19 +7464,19 @@
         <v>116201</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>104507</v>
+        <v>103994</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>126548</v>
+        <v>126777</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7435205607643114</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6686972485869449</v>
+        <v>0.6654157275244893</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8097279198187226</v>
+        <v>0.8111899541295966</v>
       </c>
     </row>
     <row r="19">
@@ -7581,19 +7581,19 @@
         <v>3426</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8890</v>
+        <v>9009</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06779195791025201</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02171055977327976</v>
+        <v>0.02176035293304497</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1759304842822867</v>
+        <v>0.1782774116449416</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -7602,19 +7602,19 @@
         <v>3426</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8756</v>
+        <v>8200</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03698946958499391</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01202235096763708</v>
+        <v>0.01193148230866492</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09454865766303766</v>
+        <v>0.08854658048268577</v>
       </c>
     </row>
     <row r="21">
@@ -7631,19 +7631,19 @@
         <v>4932</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1647</v>
+        <v>2310</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9623</v>
+        <v>9457</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1171950494495072</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03913661192201108</v>
+        <v>0.0549025496707508</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2286941228073631</v>
+        <v>0.2247312657480305</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -7652,19 +7652,19 @@
         <v>14756</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8941</v>
+        <v>8882</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22790</v>
+        <v>22415</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2920152999078282</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1769319749957645</v>
+        <v>0.175763286799978</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4510067928527536</v>
+        <v>0.4435745676928135</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>19</v>
@@ -7673,19 +7673,19 @@
         <v>19688</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>12234</v>
+        <v>12528</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>28733</v>
+        <v>28539</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2125825929945679</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1321044850165042</v>
+        <v>0.135272716991327</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3102462167977674</v>
+        <v>0.3081606510773973</v>
       </c>
     </row>
     <row r="22">
@@ -7702,19 +7702,19 @@
         <v>37148</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32457</v>
+        <v>32623</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40433</v>
+        <v>39770</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8828049505504928</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.771305877192637</v>
+        <v>0.7752687342519673</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9608633880779889</v>
+        <v>0.9450974503292492</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -7723,19 +7723,19 @@
         <v>32350</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24784</v>
+        <v>25056</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38800</v>
+        <v>39510</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6401927421819198</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4904548592589947</v>
+        <v>0.4958540441112961</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7678240550442063</v>
+        <v>0.7818736428978919</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>71</v>
@@ -7744,19 +7744,19 @@
         <v>69499</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60253</v>
+        <v>60424</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>76812</v>
+        <v>77270</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7504279374204382</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6505997637804642</v>
+        <v>0.6524475719241023</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8293917316474322</v>
+        <v>0.8343449318931494</v>
       </c>
     </row>
     <row r="23">
@@ -7848,19 +7848,19 @@
         <v>10000</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5729</v>
+        <v>5454</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16529</v>
+        <v>15766</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2064186671527068</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1182525090006515</v>
+        <v>0.112579578497578</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3411785698315911</v>
+        <v>0.3254359335231312</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -7869,19 +7869,19 @@
         <v>9590</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4066</v>
+        <v>3816</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17791</v>
+        <v>17206</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1423041984788195</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.060334307952788</v>
+        <v>0.0566243465858524</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2640083555301837</v>
+        <v>0.2553289989797292</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -7890,19 +7890,19 @@
         <v>19590</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11923</v>
+        <v>12443</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>29309</v>
+        <v>28867</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1691192575198903</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1029343545001251</v>
+        <v>0.1074239952225369</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2530266914575053</v>
+        <v>0.2492059666228505</v>
       </c>
     </row>
     <row r="25">
@@ -7919,19 +7919,19 @@
         <v>3316</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7630</v>
+        <v>8283</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.068456697615358</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0167418200315613</v>
+        <v>0.01675721067973566</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1575050158008172</v>
+        <v>0.1709816359733082</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -7940,19 +7940,19 @@
         <v>9272</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3772</v>
+        <v>3573</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16366</v>
+        <v>17166</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1375850022004573</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05598006496718539</v>
+        <v>0.05302459367984057</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2428677642972646</v>
+        <v>0.2547281981727815</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -7961,19 +7961,19 @@
         <v>12588</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6748</v>
+        <v>6483</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22735</v>
+        <v>21185</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1086729702176744</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05825575082054703</v>
+        <v>0.05596468395968245</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1962703086150089</v>
+        <v>0.1828939310475091</v>
       </c>
     </row>
     <row r="26">
@@ -7990,19 +7990,19 @@
         <v>35129</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28993</v>
+        <v>29350</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>40331</v>
+        <v>40195</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7251246352319352</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5984515254168187</v>
+        <v>0.6058326263519325</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8324948674753312</v>
+        <v>0.8296962851140143</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>45</v>
@@ -8011,19 +8011,19 @@
         <v>48527</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>39960</v>
+        <v>40049</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>56309</v>
+        <v>56287</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7201107993207232</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5929798124448727</v>
+        <v>0.5943114764322875</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8355947578227093</v>
+        <v>0.835265662012328</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>84</v>
@@ -8032,19 +8032,19 @@
         <v>83656</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>72173</v>
+        <v>72383</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>92308</v>
+        <v>92357</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7222077722624353</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6230719856810893</v>
+        <v>0.6248885117607442</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7968996914093819</v>
+        <v>0.7973255515694539</v>
       </c>
     </row>
     <row r="27">
@@ -8136,19 +8136,19 @@
         <v>9310</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4699</v>
+        <v>4580</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>16282</v>
+        <v>16106</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08298947697315107</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.041884162403028</v>
+        <v>0.04082591009271046</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1451308130918711</v>
+        <v>0.1435677116834789</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -8157,19 +8157,19 @@
         <v>11094</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5595</v>
+        <v>5870</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19974</v>
+        <v>20048</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07515052303898291</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03789699559809463</v>
+        <v>0.03976489161582519</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1353043223752692</v>
+        <v>0.1358019941058392</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>19</v>
@@ -8178,19 +8178,19 @@
         <v>20404</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12587</v>
+        <v>13137</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>31048</v>
+        <v>31446</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07853536643294549</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04844827155007742</v>
+        <v>0.05056471233006344</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1195017586669661</v>
+        <v>0.1210350197590017</v>
       </c>
     </row>
     <row r="29">
@@ -8207,19 +8207,19 @@
         <v>16382</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10282</v>
+        <v>10444</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>25133</v>
+        <v>25254</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1460269550098843</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09165490633483202</v>
+        <v>0.09309273215443878</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2240276302443631</v>
+        <v>0.2251132684123872</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>32</v>
@@ -8228,19 +8228,19 @@
         <v>38363</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>28328</v>
+        <v>26965</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>49523</v>
+        <v>50190</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2598659657669336</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.19189085617409</v>
+        <v>0.1826586934925105</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3354680947009993</v>
+        <v>0.3399806965380808</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>48</v>
@@ -8249,19 +8249,19 @@
         <v>54745</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>41210</v>
+        <v>40426</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>69277</v>
+        <v>70798</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2107105265626434</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1586161779348575</v>
+        <v>0.1555982988357946</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2666436194243977</v>
+        <v>0.2725003621211335</v>
       </c>
     </row>
     <row r="30">
@@ -8278,19 +8278,19 @@
         <v>86493</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>77503</v>
+        <v>77091</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>94588</v>
+        <v>94100</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7709835680169647</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.6908469051002444</v>
+        <v>0.6871809696855442</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8431471219058682</v>
+        <v>0.8387916101823591</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>84</v>
@@ -8299,19 +8299,19 @@
         <v>98168</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>85250</v>
+        <v>85871</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>109778</v>
+        <v>109835</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6649835111940835</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5774738667798093</v>
+        <v>0.5816840657595717</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7436250218258074</v>
+        <v>0.7440167354631804</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>167</v>
@@ -8320,19 +8320,19 @@
         <v>184661</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>167366</v>
+        <v>168822</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>199183</v>
+        <v>199161</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7107541070044111</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.6441874680679758</v>
+        <v>0.6497915867595292</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.766648296835527</v>
+        <v>0.7665658968832425</v>
       </c>
     </row>
     <row r="31">
@@ -8424,19 +8424,19 @@
         <v>8922</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3996</v>
+        <v>4440</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>15418</v>
+        <v>16619</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06649949480214103</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02978449492142818</v>
+        <v>0.03309566241883138</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1149123622976413</v>
+        <v>0.1238651907587317</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -8445,19 +8445,19 @@
         <v>4013</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1318</v>
+        <v>1303</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11607</v>
+        <v>11013</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02276357678070506</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.007474034602087462</v>
+        <v>0.00739022689336884</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06583524276589141</v>
+        <v>0.06247127792171849</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>12</v>
@@ -8466,19 +8466,19 @@
         <v>12935</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6989</v>
+        <v>6901</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>21655</v>
+        <v>22029</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04166417060969356</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02251008351766792</v>
+        <v>0.02222634357725745</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06975159252509526</v>
+        <v>0.07095572432834681</v>
       </c>
     </row>
     <row r="33">
@@ -8495,19 +8495,19 @@
         <v>12404</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>7333</v>
+        <v>6876</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>20710</v>
+        <v>21279</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.09245197426835274</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0546561833297242</v>
+        <v>0.05124720451774304</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1543584910650057</v>
+        <v>0.158596281123118</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>38</v>
@@ -8516,19 +8516,19 @@
         <v>50362</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>38611</v>
+        <v>37411</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>65305</v>
+        <v>64035</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2856678109646364</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2190127899554103</v>
+        <v>0.2122031801017772</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3704268747405624</v>
+        <v>0.3632213603192653</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>51</v>
@@ -8537,19 +8537,19 @@
         <v>62766</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>48902</v>
+        <v>46955</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>80256</v>
+        <v>78155</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2021690708916659</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1575118358115857</v>
+        <v>0.1512414201129683</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2585032733782685</v>
+        <v>0.2517354561899187</v>
       </c>
     </row>
     <row r="34">
@@ -8566,19 +8566,19 @@
         <v>112842</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>103316</v>
+        <v>102889</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>119786</v>
+        <v>120212</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8410485309295063</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.770050540841981</v>
+        <v>0.7668656266830045</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8928068190032598</v>
+        <v>0.8959839662506978</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>101</v>
@@ -8587,19 +8587,19 @@
         <v>121921</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>107061</v>
+        <v>108464</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>133744</v>
+        <v>134645</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6915686122546585</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.607278540362487</v>
+        <v>0.615232676646234</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7586303858151325</v>
+        <v>0.7637403888912913</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>220</v>
@@ -8608,19 +8608,19 @@
         <v>234763</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>216290</v>
+        <v>217518</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>250158</v>
+        <v>251262</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7561667584986406</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6966661187361957</v>
+        <v>0.7006198284509612</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8057513695924253</v>
+        <v>0.8093077217425695</v>
       </c>
     </row>
     <row r="35">
@@ -8712,19 +8712,19 @@
         <v>45882</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>34554</v>
+        <v>34604</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>60055</v>
+        <v>58111</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.07759186349835058</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05843532478887632</v>
+        <v>0.05851911868917877</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1015590074953629</v>
+        <v>0.09827147408490799</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>39</v>
@@ -8733,19 +8733,19 @@
         <v>50105</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>36495</v>
+        <v>34955</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>68226</v>
+        <v>66474</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06440822492861693</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04691319378232423</v>
+        <v>0.04493320634590921</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.08770226209862651</v>
+        <v>0.08545027688154556</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>90</v>
@@ -8754,19 +8754,19 @@
         <v>95987</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>76112</v>
+        <v>77294</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>115159</v>
+        <v>115569</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.07010170922655461</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05558627333749796</v>
+        <v>0.05644918785304372</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.08410310231503758</v>
+        <v>0.0844022402710557</v>
       </c>
     </row>
     <row r="37">
@@ -8783,19 +8783,19 @@
         <v>67342</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>54812</v>
+        <v>54213</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>84227</v>
+        <v>82250</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1138826360385054</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09269363809526537</v>
+        <v>0.09167925221786186</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1424363291012773</v>
+        <v>0.1390929004959765</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>146</v>
@@ -8804,19 +8804,19 @@
         <v>183381</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>158358</v>
+        <v>158633</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>210250</v>
+        <v>211814</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2357297206937449</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2035624739112733</v>
+        <v>0.2039160049588874</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2702676662507321</v>
+        <v>0.2722790938214731</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>221</v>
@@ -8825,19 +8825,19 @@
         <v>250723</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>220509</v>
+        <v>219475</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>280535</v>
+        <v>279484</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1831088558570275</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1610423623284679</v>
+        <v>0.1602876285642357</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.204880738817228</v>
+        <v>0.2041136384194364</v>
       </c>
     </row>
     <row r="38">
@@ -8854,19 +8854,19 @@
         <v>478104</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>460287</v>
+        <v>460615</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>496718</v>
+        <v>496080</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.808525500463144</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7783961473533758</v>
+        <v>0.7789496811252513</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8400044845095593</v>
+        <v>0.838925595324968</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>470</v>
@@ -8875,19 +8875,19 @@
         <v>544444</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>518484</v>
+        <v>515447</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>571790</v>
+        <v>573374</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6998620543776382</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6664908419405101</v>
+        <v>0.6625871670727933</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7350141673984457</v>
+        <v>0.7370498950376828</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>971</v>
@@ -8896,19 +8896,19 @@
         <v>1022548</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>989607</v>
+        <v>991180</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1056752</v>
+        <v>1055888</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7467894349164179</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7227314337811309</v>
+        <v>0.723880935373575</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7717689473154585</v>
+        <v>0.7711378992449791</v>
       </c>
     </row>
     <row r="39">
@@ -9244,19 +9244,19 @@
         <v>5247</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2287</v>
+        <v>2273</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10081</v>
+        <v>9891</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08608093383405963</v>
+        <v>0.08608093383405965</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03752418909856053</v>
+        <v>0.03729160501415411</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.165377071434322</v>
+        <v>0.1622714212921507</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -9265,19 +9265,19 @@
         <v>9969</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6383</v>
+        <v>6420</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14735</v>
+        <v>14624</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1527244417648847</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09778928902507437</v>
+        <v>0.09835587137116134</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.225732733198559</v>
+        <v>0.2240407404048523</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -9286,19 +9286,19 @@
         <v>15216</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10388</v>
+        <v>10636</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22736</v>
+        <v>21521</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1205434507933664</v>
+        <v>0.1205434507933665</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08229019719717486</v>
+        <v>0.08426190340070938</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1801114171610139</v>
+        <v>0.1704851411222371</v>
       </c>
     </row>
     <row r="5">
@@ -9315,19 +9315,19 @@
         <v>23280</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16733</v>
+        <v>17346</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29103</v>
+        <v>30091</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3819151058916976</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2745169488032808</v>
+        <v>0.2845732455297527</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4774459293172078</v>
+        <v>0.493654762591675</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>42</v>
@@ -9336,19 +9336,19 @@
         <v>20691</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15559</v>
+        <v>15676</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25111</v>
+        <v>26659</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3169802618623689</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2383505773419896</v>
+        <v>0.2401523235129437</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3846961780104742</v>
+        <v>0.408402757336706</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>74</v>
@@ -9357,19 +9357,19 @@
         <v>43971</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36161</v>
+        <v>36470</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52714</v>
+        <v>52837</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3483361687515114</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2864635690518308</v>
+        <v>0.2889139925024631</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.417597393881957</v>
+        <v>0.4185725116944384</v>
       </c>
     </row>
     <row r="6">
@@ -9386,19 +9386,19 @@
         <v>32428</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26526</v>
+        <v>26007</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39172</v>
+        <v>38709</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5320039602742427</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4351774645477456</v>
+        <v>0.426652772001153</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6426370227019947</v>
+        <v>0.6350451622816949</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>72</v>
@@ -9407,19 +9407,19 @@
         <v>34616</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28844</v>
+        <v>28898</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40067</v>
+        <v>40556</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5302952963727462</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4418792504073983</v>
+        <v>0.4426994112834252</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6138028103964112</v>
+        <v>0.6213072269325286</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>116</v>
@@ -9428,19 +9428,19 @@
         <v>67044</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>58015</v>
+        <v>58802</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>76384</v>
+        <v>75537</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5311203804551221</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4595899775953707</v>
+        <v>0.4658292241013713</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6051099217043937</v>
+        <v>0.5984036520039104</v>
       </c>
     </row>
     <row r="7">
@@ -9532,19 +9532,19 @@
         <v>7457</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3678</v>
+        <v>3729</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13163</v>
+        <v>13996</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.08438208301439418</v>
+        <v>0.08438208301439419</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04161369357118933</v>
+        <v>0.04219909462297252</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1489455772978764</v>
+        <v>0.1583782074967827</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>32</v>
@@ -9553,19 +9553,19 @@
         <v>20811</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14455</v>
+        <v>15058</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28017</v>
+        <v>28263</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1537846674853716</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1068156548876258</v>
+        <v>0.1112690868029415</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2070293310541892</v>
+        <v>0.2088454566480067</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -9574,19 +9574,19 @@
         <v>28268</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20328</v>
+        <v>21396</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>37077</v>
+        <v>37929</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.126367139293187</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09087289082616387</v>
+        <v>0.09564517276638461</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1657452463177134</v>
+        <v>0.1695516778942634</v>
       </c>
     </row>
     <row r="9">
@@ -9603,19 +9603,19 @@
         <v>6291</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2534</v>
+        <v>2731</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11739</v>
+        <v>11198</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07119176788058161</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02867148894739719</v>
+        <v>0.03090664132641324</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1328369248704382</v>
+        <v>0.1267080393702075</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>54</v>
@@ -9624,19 +9624,19 @@
         <v>32723</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24972</v>
+        <v>25650</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>40539</v>
+        <v>40740</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2418048603201854</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1845289837378425</v>
+        <v>0.1895398669113142</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2995627463223702</v>
+        <v>0.3010492492240469</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>61</v>
@@ -9645,19 +9645,19 @@
         <v>39014</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30113</v>
+        <v>30885</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>49094</v>
+        <v>49277</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.174404066710334</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1346132596739679</v>
+        <v>0.1380659028543882</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2194604514928915</v>
+        <v>0.2202806330021203</v>
       </c>
     </row>
     <row r="10">
@@ -9674,19 +9674,19 @@
         <v>74624</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68072</v>
+        <v>67956</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80618</v>
+        <v>80114</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8444261491050242</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7702835635323921</v>
+        <v>0.7689627703161367</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9122454381821067</v>
+        <v>0.9065427812238337</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>137</v>
@@ -9695,19 +9695,19 @@
         <v>81794</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73153</v>
+        <v>72649</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90845</v>
+        <v>89461</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.604410472194443</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5405622569736636</v>
+        <v>0.5368362384699094</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6712912794875345</v>
+        <v>0.6610657995265464</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>217</v>
@@ -9716,19 +9716,19 @@
         <v>156418</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>144702</v>
+        <v>143607</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>166894</v>
+        <v>167173</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6992287939964787</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6468523040530784</v>
+        <v>0.641957624412884</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7460562459525492</v>
+        <v>0.7473072201373765</v>
       </c>
     </row>
     <row r="11">
@@ -9820,19 +9820,19 @@
         <v>14701</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9694</v>
+        <v>9828</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20101</v>
+        <v>20221</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2033773955192422</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1341033057728928</v>
+        <v>0.1359568558217265</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2780759071256492</v>
+        <v>0.2797443204015576</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -9841,19 +9841,19 @@
         <v>16810</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12296</v>
+        <v>12329</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23188</v>
+        <v>23053</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1971140816300534</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1441853481156457</v>
+        <v>0.1445711478632055</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2719032069530471</v>
+        <v>0.2703168232239407</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>58</v>
@@ -9862,19 +9862,19 @@
         <v>31511</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>24502</v>
+        <v>24381</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>38857</v>
+        <v>38701</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1999874323107039</v>
+        <v>0.1999874323107038</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1555021984647853</v>
+        <v>0.1547330063766647</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2466084797707831</v>
+        <v>0.2456166195374843</v>
       </c>
     </row>
     <row r="13">
@@ -9891,19 +9891,19 @@
         <v>6461</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3543</v>
+        <v>3531</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11113</v>
+        <v>10669</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08938696283134552</v>
+        <v>0.08938696283134551</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04901779781551539</v>
+        <v>0.04884201560984058</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1537327349540204</v>
+        <v>0.1475905448292647</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -9912,19 +9912,19 @@
         <v>20749</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16006</v>
+        <v>15412</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26857</v>
+        <v>26806</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2432996778942506</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1876900459994799</v>
+        <v>0.1807188725417388</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3149244525817508</v>
+        <v>0.3143307511839598</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -9933,19 +9933,19 @@
         <v>27210</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20647</v>
+        <v>20650</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34361</v>
+        <v>34883</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1726908576417445</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1310343947305897</v>
+        <v>0.1310584579629051</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2180759612273585</v>
+        <v>0.2213882785018721</v>
       </c>
     </row>
     <row r="14">
@@ -9962,19 +9962,19 @@
         <v>51123</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>44918</v>
+        <v>45228</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>56586</v>
+        <v>57138</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7072356416494124</v>
+        <v>0.7072356416494122</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6214033665745671</v>
+        <v>0.6256890584924027</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7828190423071582</v>
+        <v>0.7904554088737284</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>94</v>
@@ -9983,19 +9983,19 @@
         <v>47722</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41044</v>
+        <v>41345</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>54334</v>
+        <v>54461</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5595862404756961</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4812750623463643</v>
+        <v>0.4848078765859276</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6371162129145989</v>
+        <v>0.6386060183249226</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>180</v>
@@ -10004,19 +10004,19 @@
         <v>98845</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>90421</v>
+        <v>89937</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>107767</v>
+        <v>106989</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6273217100475518</v>
+        <v>0.6273217100475517</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5738611030801702</v>
+        <v>0.5707915135629812</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6839461676212409</v>
+        <v>0.6790076758547481</v>
       </c>
     </row>
     <row r="15">
@@ -10108,19 +10108,19 @@
         <v>3194</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1231</v>
+        <v>1162</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7507</v>
+        <v>7269</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0384144178214457</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01480474965111137</v>
+        <v>0.01397202927426725</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09027562513879836</v>
+        <v>0.08741901529780309</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -10129,19 +10129,19 @@
         <v>9752</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6353</v>
+        <v>6118</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14640</v>
+        <v>14049</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08825214077069821</v>
+        <v>0.08825214077069819</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05749463773126216</v>
+        <v>0.05536165097562967</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1324883623862438</v>
+        <v>0.1271394749319783</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -10150,19 +10150,19 @@
         <v>12947</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8481</v>
+        <v>8804</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18395</v>
+        <v>18483</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06685217313114546</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04379393482962227</v>
+        <v>0.04546207668076425</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0949836916256635</v>
+        <v>0.09544150610361452</v>
       </c>
     </row>
     <row r="17">
@@ -10179,19 +10179,19 @@
         <v>14565</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9940</v>
+        <v>9760</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20857</v>
+        <v>21404</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1751488367596508</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1195291246511812</v>
+        <v>0.1173736521659084</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2508141607554565</v>
+        <v>0.2573933869433246</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>54</v>
@@ -10200,19 +10200,19 @@
         <v>23545</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18079</v>
+        <v>18416</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29294</v>
+        <v>29202</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2130720126020777</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1636027286059346</v>
+        <v>0.1666511372621493</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.265090496026695</v>
+        <v>0.2642623512612632</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>76</v>
@@ -10221,19 +10221,19 @@
         <v>38110</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30556</v>
+        <v>30077</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>46215</v>
+        <v>46282</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1967880676745903</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1577832724221537</v>
+        <v>0.1553059698601353</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2386394327017572</v>
+        <v>0.2389860600652554</v>
       </c>
     </row>
     <row r="18">
@@ -10250,19 +10250,19 @@
         <v>65397</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59050</v>
+        <v>58473</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>70810</v>
+        <v>70495</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7864367454189036</v>
+        <v>0.7864367454189035</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7101117397425258</v>
+        <v>0.7031719145687716</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8515267298550802</v>
+        <v>0.8477488416396427</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>179</v>
@@ -10271,19 +10271,19 @@
         <v>77206</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>70733</v>
+        <v>71290</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>83839</v>
+        <v>83299</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6986758466272242</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6400944893600983</v>
+        <v>0.6451370464124117</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7586985530235663</v>
+        <v>0.7538083978845757</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>270</v>
@@ -10292,19 +10292,19 @@
         <v>142603</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>133016</v>
+        <v>133452</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>151072</v>
+        <v>151914</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.7363597591942642</v>
+        <v>0.7363597591942643</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6868519570991164</v>
+        <v>0.6891068546422359</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7800868600248094</v>
+        <v>0.7844386101544896</v>
       </c>
     </row>
     <row r="19">
@@ -10396,19 +10396,19 @@
         <v>1594</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4264</v>
+        <v>4280</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04367740825305842</v>
+        <v>0.04367740825305839</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01418340130263267</v>
+        <v>0.0141716642318138</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1168012783256876</v>
+        <v>0.1172577569540626</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -10417,19 +10417,19 @@
         <v>2005</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>777</v>
+        <v>740</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4550</v>
+        <v>4390</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03258655006745496</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01263201301928697</v>
+        <v>0.01201932806079275</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07393254680903404</v>
+        <v>0.07133150270123643</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -10438,19 +10438,19 @@
         <v>3600</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1635</v>
+        <v>1647</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6949</v>
+        <v>7156</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03671577525738824</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01667531203462128</v>
+        <v>0.01679611700835559</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0708735103827879</v>
+        <v>0.07298530064140167</v>
       </c>
     </row>
     <row r="21">
@@ -10470,16 +10470,16 @@
         <v>2454</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8404</v>
+        <v>8476</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1357596321413461</v>
+        <v>0.135759632141346</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06722726061578889</v>
+        <v>0.06722369472903816</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2302271496843543</v>
+        <v>0.232195556011605</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>31</v>
@@ -10488,19 +10488,19 @@
         <v>12267</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8493</v>
+        <v>8687</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16590</v>
+        <v>16431</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1993251012331289</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1379957827164364</v>
+        <v>0.1411499836425089</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.26956469254966</v>
+        <v>0.2669894440817501</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>41</v>
@@ -10509,19 +10509,19 @@
         <v>17222</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>12644</v>
+        <v>12631</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>22141</v>
+        <v>22254</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1756591114791148</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.128963136346323</v>
+        <v>0.1288248660354412</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2258279938863431</v>
+        <v>0.2269806327508567</v>
       </c>
     </row>
     <row r="22">
@@ -10538,19 +10538,19 @@
         <v>29953</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26339</v>
+        <v>25904</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32863</v>
+        <v>32587</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8205629596055956</v>
+        <v>0.8205629596055952</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7215494497030455</v>
+        <v>0.7096450313459237</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9002689271848284</v>
+        <v>0.8927116911697528</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>129</v>
@@ -10559,19 +10559,19 @@
         <v>47270</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>42798</v>
+        <v>43296</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51333</v>
+        <v>51282</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7680883486994161</v>
+        <v>0.7680883486994162</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6954343319728519</v>
+        <v>0.7035169947751284</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.834109763675145</v>
+        <v>0.8332892148770888</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>187</v>
@@ -10580,19 +10580,19 @@
         <v>77223</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>71664</v>
+        <v>71545</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>82314</v>
+        <v>81884</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7876251132634972</v>
+        <v>0.7876251132634969</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7309316463282023</v>
+        <v>0.7297191687349928</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8395503113000641</v>
+        <v>0.8351697170043673</v>
       </c>
     </row>
     <row r="23">
@@ -10684,19 +10684,19 @@
         <v>12053</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8448</v>
+        <v>8318</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16334</v>
+        <v>16244</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2001337648969684</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.140268347100521</v>
+        <v>0.1381257923109126</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2712233815252075</v>
+        <v>0.2697261878969802</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>40</v>
@@ -10705,19 +10705,19 @@
         <v>13771</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>10388</v>
+        <v>10139</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18112</v>
+        <v>17847</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.204588897054954</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1543307124683838</v>
+        <v>0.1506331882508564</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2690884671113105</v>
+        <v>0.2651467303526587</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>69</v>
@@ -10726,19 +10726,19 @@
         <v>25823</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20884</v>
+        <v>20912</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>32036</v>
+        <v>31605</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2024850814234968</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1637552225499997</v>
+        <v>0.1639739328403645</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2511985086882532</v>
+        <v>0.2478181723544596</v>
       </c>
     </row>
     <row r="25">
@@ -10755,19 +10755,19 @@
         <v>10241</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6921</v>
+        <v>7065</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14490</v>
+        <v>14549</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1700495349766031</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1149186171981112</v>
+        <v>0.1173100138266217</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2406001815340699</v>
+        <v>0.2415814255783083</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>40</v>
@@ -10776,19 +10776,19 @@
         <v>13912</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10218</v>
+        <v>10298</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18079</v>
+        <v>18507</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2066878551349043</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1518084549437546</v>
+        <v>0.1529985949633657</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.268592252362086</v>
+        <v>0.274954914884348</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>63</v>
@@ -10797,19 +10797,19 @@
         <v>24153</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18762</v>
+        <v>18704</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>29533</v>
+        <v>30144</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1893863996615339</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1471138981954704</v>
+        <v>0.1466600664534323</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2315754213959222</v>
+        <v>0.2363616556376846</v>
       </c>
     </row>
     <row r="26">
@@ -10826,19 +10826,19 @@
         <v>37930</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>32649</v>
+        <v>32503</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>42435</v>
+        <v>42232</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6298167001264285</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5421323902413248</v>
+        <v>0.5396956655384022</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7046251963435696</v>
+        <v>0.7012434515317567</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>97</v>
@@ -10847,19 +10847,19 @@
         <v>39626</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>34749</v>
+        <v>34562</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>44429</v>
+        <v>44273</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5887232478101418</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5162663305370906</v>
+        <v>0.5134774927648977</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6600762530949539</v>
+        <v>0.657759356621859</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>180</v>
@@ -10868,19 +10868,19 @@
         <v>77556</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>70301</v>
+        <v>70547</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>84427</v>
+        <v>84428</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6081285189149693</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5512434150106227</v>
+        <v>0.5531680362559269</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6620029571350067</v>
+        <v>0.6620118135910505</v>
       </c>
     </row>
     <row r="27">
@@ -10972,19 +10972,19 @@
         <v>3873</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1041</v>
+        <v>1000</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11231</v>
+        <v>9539</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0257299234416132</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006912983216543321</v>
+        <v>0.006644036983837941</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07460836032432398</v>
+        <v>0.06337018655630693</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>36</v>
@@ -10993,19 +10993,19 @@
         <v>25975</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19181</v>
+        <v>18689</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>34798</v>
+        <v>34422</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1576453167279634</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1164139124760394</v>
+        <v>0.1134261244296678</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2111953350691078</v>
+        <v>0.2089095129162269</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>40</v>
@@ -11014,19 +11014,19 @@
         <v>29848</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>22466</v>
+        <v>21715</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>40388</v>
+        <v>40321</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09466614884785554</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07125171273829779</v>
+        <v>0.06886952150290071</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1280939354872711</v>
+        <v>0.1278826650131404</v>
       </c>
     </row>
     <row r="29">
@@ -11043,19 +11043,19 @@
         <v>15058</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9159</v>
+        <v>8960</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>23499</v>
+        <v>23179</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1000293694513268</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06084561796539623</v>
+        <v>0.05952019056423484</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1561078240699909</v>
+        <v>0.1539782996735025</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>48</v>
@@ -11064,19 +11064,19 @@
         <v>32483</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>24444</v>
+        <v>24991</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>41393</v>
+        <v>41484</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1971420015364527</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1483525161038922</v>
+        <v>0.1516741775015588</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.251219431997997</v>
+        <v>0.2517695783515319</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>64</v>
@@ -11085,19 +11085,19 @@
         <v>47540</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>36979</v>
+        <v>37277</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>58781</v>
+        <v>59347</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1507783997838349</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1172828034335482</v>
+        <v>0.1182260417122423</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.186428445969274</v>
+        <v>0.1882247424062893</v>
       </c>
     </row>
     <row r="30">
@@ -11114,19 +11114,19 @@
         <v>131600</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>121474</v>
+        <v>122178</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>138037</v>
+        <v>138069</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8742407071070601</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8069673110009102</v>
+        <v>0.811645447354027</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9169974212563471</v>
+        <v>0.917212075791275</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>158</v>
@@ -11135,19 +11135,19 @@
         <v>106311</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>95710</v>
+        <v>95954</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>116418</v>
+        <v>116621</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.645212681735584</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5808723232862996</v>
+        <v>0.5823560717532082</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7065504332441315</v>
+        <v>0.707787314709747</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>305</v>
@@ -11156,19 +11156,19 @@
         <v>237911</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>225016</v>
+        <v>222929</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>250851</v>
+        <v>250271</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.7545554513683097</v>
+        <v>0.7545554513683096</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7136553643709903</v>
+        <v>0.7070366463410822</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7955937557619972</v>
+        <v>0.7937555636349725</v>
       </c>
     </row>
     <row r="31">
@@ -11260,19 +11260,19 @@
         <v>3306</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7301</v>
+        <v>7259</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0202924663061766</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008075521204616427</v>
+        <v>0.008064520124557849</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0448203470013941</v>
+        <v>0.04456287163274623</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -11281,19 +11281,19 @@
         <v>8535</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4455</v>
+        <v>4379</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>14614</v>
+        <v>14249</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.0401121534321302</v>
+        <v>0.04011215343213018</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02093879275017221</v>
+        <v>0.0205825099312233</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06868781515366301</v>
+        <v>0.0669724508893212</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>17</v>
@@ -11302,19 +11302,19 @@
         <v>11840</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>7044</v>
+        <v>6790</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>18695</v>
+        <v>17766</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.03151770223726123</v>
+        <v>0.03151770223726124</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0187500127369133</v>
+        <v>0.01807562927490906</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04976371158703236</v>
+        <v>0.04729088450144623</v>
       </c>
     </row>
     <row r="33">
@@ -11331,19 +11331,19 @@
         <v>11982</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>7217</v>
+        <v>6895</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>18903</v>
+        <v>18094</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.07355627426585769</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04430041293211709</v>
+        <v>0.04232619693067963</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1160375630658488</v>
+        <v>0.1110740842070523</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>73</v>
@@ -11352,19 +11352,19 @@
         <v>46968</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>38213</v>
+        <v>38120</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>56822</v>
+        <v>58185</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2207484337014583</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1796030927689178</v>
+        <v>0.1791624903404815</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.26706184333379</v>
+        <v>0.2734698718632343</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>90</v>
@@ -11373,19 +11373,19 @@
         <v>58950</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>47085</v>
+        <v>48389</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>70031</v>
+        <v>71434</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1569211985641239</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1253378643868991</v>
+        <v>0.1288072545017283</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1864170935468867</v>
+        <v>0.1901510855889379</v>
       </c>
     </row>
     <row r="34">
@@ -11402,19 +11402,19 @@
         <v>147614</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>140204</v>
+        <v>140831</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>153129</v>
+        <v>153087</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.9061512594279658</v>
+        <v>0.9061512594279657</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8606671502980714</v>
+        <v>0.8645158821908845</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9400079968135765</v>
+        <v>0.9397513353468117</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>258</v>
@@ -11423,19 +11423,19 @@
         <v>157264</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>146872</v>
+        <v>145433</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>166782</v>
+        <v>166627</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.7391394128664117</v>
+        <v>0.7391394128664115</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6903004684235642</v>
+        <v>0.6835362869562163</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7838729119816823</v>
+        <v>0.7831484976112384</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>470</v>
@@ -11444,19 +11444,19 @@
         <v>304878</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>292394</v>
+        <v>292028</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>318229</v>
+        <v>317068</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.8115610991986146</v>
+        <v>0.8115610991986149</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7783312293833858</v>
+        <v>0.7773559988269324</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8471014568441267</v>
+        <v>0.8440112053528677</v>
       </c>
     </row>
     <row r="35">
@@ -11548,19 +11548,19 @@
         <v>51426</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>40640</v>
+        <v>41442</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>63413</v>
+        <v>63445</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.07193117619225117</v>
+        <v>0.07193117619225116</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05684530273379992</v>
+        <v>0.05796612117755044</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08869855538740282</v>
+        <v>0.08874317610559401</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>199</v>
@@ -11569,19 +11569,19 @@
         <v>107629</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>92640</v>
+        <v>93120</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>123193</v>
+        <v>122332</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1192197249627257</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1026174707402342</v>
+        <v>0.1031484182613378</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1364605057783817</v>
+        <v>0.135506281015206</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>285</v>
@@ -11590,19 +11590,19 @@
         <v>159054</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>140871</v>
+        <v>141769</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>177688</v>
+        <v>180190</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.0983210113498859</v>
+        <v>0.09832101134988588</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0870807464385116</v>
+        <v>0.08763591324859904</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1098396580827175</v>
+        <v>0.1113861999908079</v>
       </c>
     </row>
     <row r="37">
@@ -11619,19 +11619,19 @@
         <v>92834</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>78263</v>
+        <v>77922</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>109129</v>
+        <v>108829</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.1298502481464536</v>
+        <v>0.1298502481464535</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1094701808025342</v>
+        <v>0.1089923798055436</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1526429487144811</v>
+        <v>0.1522241598138541</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>383</v>
@@ -11640,19 +11640,19 @@
         <v>203338</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>184929</v>
+        <v>182907</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>220606</v>
+        <v>221352</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2252364327150632</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2048452064042889</v>
+        <v>0.2026057181177667</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2443646418117703</v>
+        <v>0.245190172992057</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>521</v>
@@ -11661,19 +11661,19 @@
         <v>296171</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>272409</v>
+        <v>270584</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>322343</v>
+        <v>319044</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.1830814373567471</v>
+        <v>0.1830814373567472</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1683926997928995</v>
+        <v>0.1672646336207207</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1992594016729174</v>
+        <v>0.1972202408210191</v>
       </c>
     </row>
     <row r="38">
@@ -11690,19 +11690,19 @@
         <v>570669</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>552622</v>
+        <v>553168</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>588253</v>
+        <v>588875</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.7982185756612954</v>
+        <v>0.7982185756612953</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7729756634959208</v>
+        <v>0.7737388170301551</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8228136459815977</v>
+        <v>0.8236842432666375</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1124</v>
@@ -11711,19 +11711,19 @@
         <v>591809</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>572198</v>
+        <v>570207</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>615546</v>
+        <v>612568</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.6555438423222111</v>
+        <v>0.655543842322211</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6338213339788419</v>
+        <v>0.631615683358306</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6818376415597005</v>
+        <v>0.6785393477624397</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1925</v>
@@ -11732,19 +11732,19 @@
         <v>1162477</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1136149</v>
+        <v>1133938</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1191494</v>
+        <v>1189295</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.718597551293367</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7023222780998154</v>
+        <v>0.700955552544278</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7365342147867074</v>
+        <v>0.7351753896501299</v>
       </c>
     </row>
     <row r="39">
